--- a/data/trans_media/Q24D_2-Habitat-trans_media.xlsx
+++ b/data/trans_media/Q24D_2-Habitat-trans_media.xlsx
@@ -869,7 +869,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,5; 3,66</t>
+          <t>2,49; 3,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,62; 3,57</t>
+          <t>2,62; 3,52</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,26; 3,71</t>
+          <t>2,27; 3,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 3,76</t>
+          <t>2,27; 3,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,99; 2,58</t>
+          <t>1,96; 2,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1044,12 +1044,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,21; 3,14</t>
+          <t>2,21; 3,1</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,32; 3,09</t>
+          <t>2,34; 3,13</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,8; 4,96</t>
+          <t>2,81; 5,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,54; 3,38</t>
+          <t>2,58; 3,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1164,12 +1164,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,18; 3,1</t>
+          <t>2,15; 3,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,98; 2,51</t>
+          <t>1,98; 2,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1184,12 +1184,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,69; 4,09</t>
+          <t>2,7; 3,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,38; 2,9</t>
+          <t>2,38; 2,91</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,02; 3,11</t>
+          <t>2,0; 3,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,79; 2,38</t>
+          <t>1,79; 2,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,99; 2,56</t>
+          <t>1,99; 2,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1324,12 +1324,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,98; 2,65</t>
+          <t>1,99; 2,6</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,13; 2,53</t>
+          <t>2,14; 2,54</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1424,12 +1424,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,51; 3,3</t>
+          <t>2,47; 3,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,5; 3,03</t>
+          <t>2,5; 3,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,03; 2,4</t>
+          <t>2,01; 2,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,35; 2,83</t>
+          <t>2,34; 2,83</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">

--- a/data/trans_media/Q24D_2-Habitat-trans_media.xlsx
+++ b/data/trans_media/Q24D_2-Habitat-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,56; 4,21</t>
+          <t>1,55; 4,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,16; 4,5</t>
+          <t>2,18; 4,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,96; 4,49</t>
+          <t>1,96; 4,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,18; 2,34</t>
+          <t>1,21; 2,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,34; 3,1</t>
+          <t>1,33; 3,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,65; 3,44</t>
+          <t>1,63; 3,43</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,0; 3,69</t>
+          <t>2,03; 3,7</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,8; 3,32</t>
+          <t>1,78; 3,27</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,02; 3,56</t>
+          <t>2,02; 3,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,49; 3,67</t>
+          <t>2,49; 3,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,0; 2,84</t>
+          <t>2,04; 2,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,52; 2,17</t>
+          <t>1,5; 2,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,5; 3,95</t>
+          <t>2,52; 3,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,27; 3,69</t>
+          <t>2,28; 3,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,97; 3,16</t>
+          <t>1,97; 3,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,62; 3,52</t>
+          <t>2,6; 3,48</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,23; 2,94</t>
+          <t>2,24; 2,96</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,27; 3,74</t>
+          <t>2,25; 3,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,27; 3,84</t>
+          <t>2,25; 3,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,2; 2,75</t>
+          <t>2,21; 2,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,96; 2,58</t>
+          <t>1,96; 2,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,25; 2,89</t>
+          <t>2,26; 2,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,4; 3,59</t>
+          <t>2,43; 3,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,21; 3,1</t>
+          <t>2,21; 3,11</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,34; 3,13</t>
+          <t>2,33; 3,15</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,38; 2,99</t>
+          <t>2,37; 3,03</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,81; 5,02</t>
+          <t>2,85; 5,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,58; 3,44</t>
+          <t>2,57; 3,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,18; 3,27</t>
+          <t>2,21; 3,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,15; 3,15</t>
+          <t>2,11; 3,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,98; 2,5</t>
+          <t>1,97; 2,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,76; 2,33</t>
+          <t>1,76; 2,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,7; 3,99</t>
+          <t>2,68; 3,97</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,38; 2,91</t>
+          <t>2,37; 2,92</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,11; 2,81</t>
+          <t>2,11; 2,89</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,0; 3,01</t>
+          <t>2,0; 3,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,12; 2,66</t>
+          <t>2,12; 2,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,4; 3,26</t>
+          <t>2,36; 3,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,79; 2,42</t>
+          <t>1,77; 2,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,99; 2,6</t>
+          <t>2,01; 2,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,18; 2,82</t>
+          <t>2,19; 2,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,99; 2,6</t>
+          <t>1,98; 2,57</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,36; 2,92</t>
+          <t>2,38; 2,94</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,47; 3,23</t>
+          <t>2,49; 3,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,5; 3,04</t>
+          <t>2,48; 3,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,38; 2,76</t>
+          <t>2,37; 2,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,01; 2,39</t>
+          <t>2,03; 2,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,29; 2,65</t>
+          <t>2,28; 2,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,32; 2,8</t>
+          <t>2,3; 2,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,34; 2,83</t>
+          <t>2,35; 2,83</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,44; 2,76</t>
+          <t>2,45; 2,77</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,39; 2,71</t>
+          <t>2,39; 2,68</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
